--- a/ExamProject/Angular-Project-March-2016/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/ExamProject/Angular-Project-March-2016/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24660" windowHeight="14560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29280" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
@@ -651,7 +651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -763,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="D11" s="4">
         <v>20</v>
@@ -811,7 +811,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4">
         <v>10</v>
@@ -835,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="4">
         <v>5</v>
@@ -847,7 +847,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4">
         <v>10</v>
@@ -859,7 +859,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4">
         <v>15</v>
@@ -871,7 +871,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4">
         <v>10</v>
@@ -883,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D21" s="4">
         <v>10</v>
@@ -907,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="4">
         <v>10</v>
@@ -938,7 +938,9 @@
       <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
       <c r="D26" s="6">
         <v>20</v>
       </c>
@@ -957,7 +959,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="6">
         <v>10</v>
@@ -969,7 +971,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="6">
         <v>10</v>
@@ -981,7 +983,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="6">
         <v>15</v>
@@ -993,7 +995,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="6">
         <v>5</v>
@@ -1006,7 +1008,7 @@
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>

--- a/ExamProject/Angular-Project-March-2016/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/ExamProject/Angular-Project-March-2016/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29280" windowHeight="17700"/>
+    <workbookView xWindow="3240" yWindow="360" windowWidth="29280" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -143,6 +143,39 @@
   </si>
   <si>
     <t>-&gt;Edit Project Page</t>
+  </si>
+  <si>
+    <t>used bootstrap, could've done better</t>
+  </si>
+  <si>
+    <t>followed johnpapa style guide</t>
+  </si>
+  <si>
+    <t>can be optimized with pagination if figure out how it works</t>
+  </si>
+  <si>
+    <t>not clear why project issue should have all project available</t>
+  </si>
+  <si>
+    <t>can be optimized to display new comments without refresh</t>
+  </si>
+  <si>
+    <t>current user not selected in dropdown</t>
+  </si>
+  <si>
+    <t>all should work</t>
+  </si>
+  <si>
+    <t>works however throws error as well</t>
+  </si>
+  <si>
+    <t>visible only for admin</t>
+  </si>
+  <si>
+    <t>admin and author</t>
+  </si>
+  <si>
+    <t>no time for filters, nor pagination, table view</t>
   </si>
 </sst>
 </file>
@@ -651,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -662,7 +695,7 @@
   <dimension ref="B2:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -768,7 +801,9 @@
       <c r="D11" s="4">
         <v>20</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
@@ -780,7 +815,9 @@
       <c r="D12" s="4">
         <v>30</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="3" t="s">
@@ -816,7 +853,9 @@
       <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="3" t="s">
@@ -852,7 +891,9 @@
       <c r="D18" s="4">
         <v>10</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="3" t="s">
@@ -864,7 +905,9 @@
       <c r="D19" s="4">
         <v>15</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
@@ -876,19 +919,23 @@
       <c r="D20" s="4">
         <v>10</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4">
         <v>10</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
@@ -907,12 +954,14 @@
         <v>19</v>
       </c>
       <c r="C23" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4">
         <v>10</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="2:5" ht="18">
       <c r="B24" s="16" t="s">
@@ -939,12 +988,14 @@
         <v>28</v>
       </c>
       <c r="C26" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="6">
         <v>20</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="12" t="s">
@@ -976,7 +1027,9 @@
       <c r="D29" s="6">
         <v>10</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="14" t="s">
@@ -988,7 +1041,9 @@
       <c r="D30" s="6">
         <v>15</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="13" t="s">
@@ -1000,7 +1055,9 @@
       <c r="D31" s="6">
         <v>5</v>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="32" spans="2:5" ht="18">
       <c r="B32" s="1" t="s">
@@ -1008,7 +1065,7 @@
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>

--- a/ExamProject/Angular-Project-March-2016/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/ExamProject/Angular-Project-March-2016/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="360" windowWidth="29280" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>no time for filters, nor pagination, table view</t>
+  </si>
+  <si>
+    <t>gartin</t>
+  </si>
+  <si>
+    <t>Martin Georgiev</t>
   </si>
 </sst>
 </file>
@@ -684,7 +690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -695,7 +701,7 @@
   <dimension ref="B2:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -731,7 +737,9 @@
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
@@ -739,7 +747,9 @@
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
